--- a/Contract/storage/excel/2025/20251225-1047_2025_3333_SCTT_HO-TRUNG-DUNG.xlsx
+++ b/Contract/storage/excel/2025/20251225-1047_2025_3333_SCTT_HO-TRUNG-DUNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afste\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD92F1-FB7B-426C-94E8-4EAEA72124CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27BAC0-9C29-4FCB-B71F-1D45AA7697AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,6 +616,42 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -646,42 +682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1134,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,91 +1154,86 @@
     <col min="11" max="11" width="21" style="14" customWidth="1"/>
     <col min="12" max="12" width="17" style="14" customWidth="1"/>
     <col min="13" max="13" width="26.140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="14" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,9 +1251,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1276,9 +1270,8 @@
       <c r="M6" s="8"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1296,9 +1289,8 @@
       <c r="M7" s="8"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1316,9 +1308,8 @@
       <c r="M8" s="24"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -1336,9 +1327,8 @@
       <c r="M9" s="24"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
@@ -1379,524 +1369,524 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+    <row r="11" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>1</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="31">
         <v>6573551</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="44" t="s">
+      <c r="E11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="33">
         <v>45777</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="33">
         <v>46506</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="35">
         <v>600000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+    <row r="12" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>2</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="40">
         <v>6557977</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="49" t="s">
+      <c r="E12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="33">
         <v>45781</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="33">
         <v>46510</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="35">
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <v>3</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="31">
         <v>7955836</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="44" t="s">
+      <c r="E13" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="33">
         <v>45788</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="33">
         <v>46517</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="35">
         <v>600000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+    <row r="14" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>4</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="31">
         <v>25251479</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="44" t="s">
+      <c r="E14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="33">
         <v>45802</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="33">
         <v>46531</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="35">
         <v>600000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+    <row r="15" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <v>5</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="31">
         <v>6566789</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="44" t="s">
+      <c r="E15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="33">
         <v>45843</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="33">
         <v>46572</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="35">
         <v>600000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <v>6</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="31">
         <v>6559783</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44" t="s">
+      <c r="E16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="33">
         <v>45829</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="33">
         <v>46558</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="35">
         <v>600000</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="29">
         <v>7</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="31">
         <v>6570059</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="44" t="s">
+      <c r="E17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="33">
         <v>45885</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="33">
         <v>46614</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="35">
         <v>600000</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="29">
         <v>8</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="31">
         <v>6579027</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="44" t="s">
+      <c r="E18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="33">
         <v>45878</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="33">
         <v>46607</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="35">
         <v>600000</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="29">
         <v>9</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="31">
         <v>6573678</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44" t="s">
+      <c r="E19" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="33">
         <v>45861</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="33">
         <v>46590</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="35">
         <v>600000</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="29">
         <v>10</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="31">
         <v>6568169</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44" t="s">
+      <c r="E20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="33">
         <v>45808</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="33">
         <v>46537</v>
       </c>
-      <c r="L20" s="46" t="s">
+      <c r="L20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="35">
         <v>600000</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="27">
         <f>SUM(M11:M20)</f>
         <v>6000000</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="27">
         <f>M21*8%</f>
         <v>480000</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="28">
         <f>SUM(M21:M22)</f>
         <v>6480000</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1974,23 +1964,23 @@
       <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
